--- a/forecast_summary_B0CTTW2MVG.xlsx
+++ b/forecast_summary_B0CTTW2MVG.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-26.14439260206534</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.91112539725989</v>
+        <v>-13.9162119118864</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-97.4956802356825</v>
       </c>
       <c r="D3" t="n">
-        <v>-85.89628848929364</v>
+        <v>-85.5111480916201</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-175.7784363443118</v>
       </c>
       <c r="D4" t="n">
-        <v>-164.1949039871381</v>
+        <v>-163.563087944533</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-185.6609824236027</v>
       </c>
       <c r="D5" t="n">
-        <v>-173.9824091017714</v>
+        <v>-174.2792933100022</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-80.50101856418557</v>
       </c>
       <c r="D6" t="n">
-        <v>-67.74861701943109</v>
+        <v>-68.70896110103732</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>93.34158954312237</v>
       </c>
       <c r="D7" t="n">
-        <v>105.6778100107917</v>
+        <v>106.1671216173921</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>216.4649590491124</v>
       </c>
       <c r="D8" t="n">
-        <v>227.8936604831637</v>
+        <v>229.0249145873522</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>199.6257638948077</v>
       </c>
       <c r="D9" t="n">
-        <v>212.8832075012623</v>
+        <v>212.1561873325497</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>71.93342874217782</v>
       </c>
       <c r="D10" t="n">
-        <v>83.27495999550361</v>
+        <v>84.44478355400325</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-41.98826183152521</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.17665278741201</v>
+        <v>-29.56011013840326</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-39.67320875981279</v>
       </c>
       <c r="D12" t="n">
-        <v>-27.36385251072097</v>
+        <v>-27.17523015408073</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>65.47669618521364</v>
       </c>
       <c r="D13" t="n">
-        <v>77.33638495562218</v>
+        <v>77.67971753997244</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>168.8935721498937</v>
       </c>
       <c r="D14" t="n">
-        <v>180.1457971930721</v>
+        <v>181.7599269934977</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>185.3127322047369</v>
       </c>
       <c r="D15" t="n">
-        <v>198.2167082337028</v>
+        <v>197.2648258195016</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>124.7012361938724</v>
       </c>
       <c r="D16" t="n">
-        <v>136.5246874530459</v>
+        <v>136.3358793958273</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>61.08912989638733</v>
       </c>
       <c r="D17" t="n">
-        <v>72.72312324522299</v>
+        <v>73.03748407241589</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>43.99744822123319</v>
       </c>
       <c r="D18" t="n">
-        <v>56.1053579910981</v>
+        <v>55.29168225851287</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>56.48845417345712</v>
       </c>
       <c r="D19" t="n">
-        <v>69.20980460292849</v>
+        <v>69.38665492532023</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>55.64496696032523</v>
       </c>
       <c r="D20" t="n">
-        <v>66.40947654403861</v>
+        <v>68.05432762643419</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>32.09313998179815</v>
       </c>
       <c r="D21" t="n">
-        <v>44.23117366648491</v>
+        <v>43.4477767460176</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760 DS3H AC</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
